--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8BA095-952F-4727-82D1-D18654419EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272FFE4-7FCC-4158-9517-61D3588918EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="6135" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="33720" yWindow="6135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,24 +549,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -595,6 +582,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -613,9 +603,19 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BW19" sqref="BW19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="V1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="BC1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD1">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -11424,10 +11424,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -11618,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -12006,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -12421,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="BE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF60">
         <v>0</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61">
         <v>0</v>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="BE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF61">
         <v>0</v>
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -13352,22 +13352,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BL64">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272FFE4-7FCC-4158-9517-61D3588918EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA232C-3E04-44A3-AFF6-648BB7DE022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="6135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S62" sqref="S62"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="W1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X1">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="BL1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.4">
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="BK2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL2">
         <v>6</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -2005,34 +2005,34 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -2199,19 +2199,19 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -3849,16 +3849,16 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -6440,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -6634,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62">
         <v>0</v>
@@ -12967,7 +12967,7 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -13033,10 +13033,10 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -13176,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="BL64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA232C-3E04-44A3-AFF6-648BB7DE022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487F280-1840-4E0B-BEF0-E3942066D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="6135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board1" sheetId="1" r:id="rId1"/>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X54" sqref="X54"/>
+    <sheetView tabSelected="1" zoomScale="29" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BL64" sqref="A1:BL64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6312,6 +6312,9 @@
         <v>0</v>
       </c>
       <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
         <v>0</v>
       </c>
       <c r="AV28">

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487F280-1840-4E0B-BEF0-E3942066D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1AE76D-F73B-4E1D-8818-927B2E1F325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="29" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BL64" sqref="A1:BL64"/>
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="BC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="BC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="BC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14">
         <v>0</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="BC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="BC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="BC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="BC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="BC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="BC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="BC23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="BC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="BC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="BC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="BC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27">
         <v>0</v>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28">
         <v>0</v>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1AE76D-F73B-4E1D-8818-927B2E1F325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3949-B913-41A5-AB3A-3BF249B19D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:BL64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Documents\Johan\FFI-B_THI\WS_22-23\INTP\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3949-B913-41A5-AB3A-3BF249B19D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18872179-141D-4462-B4F6-A787B3ECB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board1" sheetId="1" r:id="rId1"/>
@@ -549,11 +549,24 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -582,9 +595,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -603,19 +613,9 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -931,13 +931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="27" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BD19" sqref="BD19:BD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Z1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA1">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1539,22 +1539,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1587,31 +1587,31 @@
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1915,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1987,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2375,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2503,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2629,22 +2629,22 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
         <v>0</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
         <v>0</v>
@@ -2683,15 +2683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>0</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
         <v>0</v>
@@ -2877,15 +2877,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2912,28 +2912,28 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3094,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -3199,34 +3199,34 @@
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="BG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -3405,22 +3405,22 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="BG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3503,16 +3503,16 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="BG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -3829,16 +3829,16 @@
         <v>0</v>
       </c>
       <c r="BG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15">
         <v>0</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3879,28 +3879,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3933,28 +3933,28 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -4023,30 +4023,30 @@
         <v>0</v>
       </c>
       <c r="BG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -4229,18 +4229,18 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -4351,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -4423,18 +4423,18 @@
         <v>0</v>
       </c>
       <c r="BK18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4461,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -4506,10 +4506,10 @@
         <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -4545,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19">
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -4617,27 +4617,27 @@
         <v>0</v>
       </c>
       <c r="BK19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -4670,28 +4670,28 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -4739,13 +4739,13 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20">
         <v>0</v>
@@ -4811,30 +4811,30 @@
         <v>0</v>
       </c>
       <c r="BK20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -4930,19 +4930,19 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21">
         <v>0</v>
@@ -5005,18 +5005,18 @@
         <v>0</v>
       </c>
       <c r="BK21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -5091,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -5124,19 +5124,19 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22">
         <v>0</v>
@@ -5199,18 +5199,18 @@
         <v>0</v>
       </c>
       <c r="BK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -5318,25 +5318,25 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23">
         <v>0</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23">
         <v>0</v>
@@ -5393,18 +5393,18 @@
         <v>0</v>
       </c>
       <c r="BK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5422,40 +5422,40 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -5503,28 +5503,28 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>0</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <v>0</v>
@@ -5587,13 +5587,13 @@
         <v>0</v>
       </c>
       <c r="BK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -5709,16 +5709,16 @@
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25">
         <v>0</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -5781,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="BK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5873,16 +5873,16 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
         <v>0</v>
@@ -5903,16 +5903,16 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>0</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -5975,13 +5975,13 @@
         <v>0</v>
       </c>
       <c r="BK26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -6064,19 +6064,19 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -6169,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="BK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -6231,22 +6231,22 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -6291,16 +6291,16 @@
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI30">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -6777,13 +6777,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="BH31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI31">
         <v>0</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -7106,19 +7106,19 @@
         <v>0</v>
       </c>
       <c r="AZ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE32">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="BH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI32">
         <v>0</v>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BH33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33">
         <v>0</v>
@@ -7339,18 +7339,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -7365,28 +7365,28 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -7395,19 +7395,19 @@
         <v>0</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34">
         <v>0</v>
@@ -7506,19 +7506,19 @@
         <v>0</v>
       </c>
       <c r="BD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG34">
         <v>0</v>
       </c>
       <c r="BH34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI34">
         <v>0</v>
@@ -7533,9 +7533,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7559,28 +7559,28 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -7595,13 +7595,13 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -7661,13 +7661,13 @@
         <v>0</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB35">
         <v>0</v>
@@ -7700,19 +7700,19 @@
         <v>0</v>
       </c>
       <c r="BD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG35">
         <v>0</v>
       </c>
       <c r="BH35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI35">
         <v>0</v>
@@ -7727,9 +7727,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7765,13 +7765,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -7789,22 +7789,22 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -7855,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36">
         <v>0</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="BD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE36">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="BH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI36">
         <v>0</v>
@@ -7921,9 +7921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB37">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE37">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="BH37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI37">
         <v>0</v>
@@ -8115,9 +8115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -8198,10 +8198,10 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8273,31 +8273,31 @@
         <v>0</v>
       </c>
       <c r="BA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB38">
         <v>0</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ38">
         <v>0</v>
@@ -8309,9 +8309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -8431,19 +8431,19 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -8473,25 +8473,25 @@
         <v>0</v>
       </c>
       <c r="BC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ39">
         <v>0</v>
@@ -8503,9 +8503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -8586,16 +8586,16 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
         <v>0</v>
@@ -8631,19 +8631,19 @@
         <v>0</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -8667,25 +8667,25 @@
         <v>0</v>
       </c>
       <c r="BC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ40">
         <v>0</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8729,10 +8729,10 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -8750,28 +8750,28 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -8804,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -8825,13 +8825,13 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="BE41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="BH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI41">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -8944,28 +8944,28 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -8974,13 +8974,13 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -9019,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT42">
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="BE42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF42">
         <v>0</v>
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="BH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI42">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -9138,43 +9138,43 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -9192,34 +9192,34 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP43">
         <v>0</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>0</v>
       </c>
       <c r="AZ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43">
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF43">
         <v>0</v>
@@ -9264,13 +9264,13 @@
         <v>0</v>
       </c>
       <c r="BH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK43">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -9332,34 +9332,34 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="AZ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="BE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF44">
         <v>0</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="BI44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK44">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9505,16 +9505,16 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -9526,34 +9526,34 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -9613,22 +9613,22 @@
         <v>0</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK45">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -9738,16 +9738,16 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AU46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="AZ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK46">
         <v>0</v>
@@ -9861,24 +9861,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -9914,34 +9914,34 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47">
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -10001,13 +10001,13 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV47">
         <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47">
         <v>0</v>
@@ -10016,7 +10016,7 @@
         <v>0</v>
       </c>
       <c r="AZ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA47">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK47">
         <v>0</v>
@@ -10055,24 +10055,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -10165,13 +10165,13 @@
         <v>0</v>
       </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -10195,40 +10195,40 @@
         <v>0</v>
       </c>
       <c r="AU48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV48">
         <v>0</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48">
         <v>0</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG48">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="BJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK48">
         <v>0</v>
@@ -10249,36 +10249,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -10302,43 +10302,43 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49">
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -10356,19 +10356,19 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49">
         <v>0</v>
       </c>
       <c r="AM49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49">
         <v>0</v>
@@ -10395,19 +10395,19 @@
         <v>0</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49">
         <v>0</v>
       </c>
       <c r="AY49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB49">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="BH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -10443,42 +10443,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -10496,34 +10496,34 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -10547,10 +10547,10 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
         <v>0</v>
@@ -10562,10 +10562,10 @@
         <v>0</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50">
         <v>0</v>
@@ -10589,25 +10589,25 @@
         <v>0</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD50">
         <v>0</v>
@@ -10622,13 +10622,13 @@
         <v>0</v>
       </c>
       <c r="BH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK50">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -10690,34 +10690,34 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -10738,10 +10738,10 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0</v>
@@ -10783,13 +10783,13 @@
         <v>0</v>
       </c>
       <c r="AW51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51">
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK51">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC52">
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52">
         <v>0</v>
@@ -10929,10 +10929,10 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -10944,10 +10944,10 @@
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -10956,10 +10956,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>0</v>
@@ -10971,19 +10971,19 @@
         <v>0</v>
       </c>
       <c r="AU52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV52">
         <v>0</v>
       </c>
       <c r="AW52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52">
         <v>0</v>
       </c>
       <c r="AY52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52">
         <v>0</v>
@@ -11001,22 +11001,22 @@
         <v>0</v>
       </c>
       <c r="BE52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK52">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -11090,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -11105,25 +11105,25 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53">
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53">
         <v>0</v>
@@ -11132,19 +11132,19 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53">
         <v>0</v>
@@ -11165,19 +11165,19 @@
         <v>0</v>
       </c>
       <c r="AU53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV53">
         <v>0</v>
       </c>
       <c r="AW53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53">
         <v>0</v>
       </c>
       <c r="AY53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53">
         <v>0</v>
@@ -11219,12 +11219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -11278,13 +11278,13 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54">
         <v>0</v>
@@ -11329,10 +11329,10 @@
         <v>0</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -11344,10 +11344,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>0</v>
@@ -11359,19 +11359,19 @@
         <v>0</v>
       </c>
       <c r="AU54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54">
         <v>0</v>
       </c>
       <c r="AY54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ54">
         <v>0</v>
@@ -11413,12 +11413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -11514,10 +11514,10 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -11535,10 +11535,10 @@
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="AV55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW55">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="AY55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ55">
         <v>0</v>
@@ -11607,15 +11607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -11657,22 +11657,22 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -11711,10 +11711,10 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -11726,10 +11726,10 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP56">
         <v>0</v>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="AV56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW56">
         <v>0</v>
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="AY56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ56">
         <v>0</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -11860,13 +11860,13 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -11908,19 +11908,19 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57">
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO57">
         <v>0</v>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="AV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW57">
         <v>0</v>
@@ -11953,19 +11953,19 @@
         <v>0</v>
       </c>
       <c r="AY57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ57">
         <v>0</v>
       </c>
       <c r="BA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD57">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -12018,16 +12018,16 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -12054,13 +12054,13 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>0</v>
@@ -12069,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58">
         <v>0</v>
@@ -12105,13 +12105,13 @@
         <v>0</v>
       </c>
       <c r="AK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="AV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW58">
         <v>0</v>
@@ -12147,19 +12147,19 @@
         <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>0</v>
       </c>
       <c r="BA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -12215,16 +12215,16 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -12254,31 +12254,31 @@
         <v>0</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -12332,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="AV59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW59">
         <v>0</v>
@@ -12347,13 +12347,13 @@
         <v>0</v>
       </c>
       <c r="BA59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59">
         <v>0</v>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -12427,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -12541,10 +12541,10 @@
         <v>0</v>
       </c>
       <c r="BA60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60">
         <v>0</v>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -12603,13 +12603,13 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
         <v>0</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61">
         <v>0</v>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -12785,25 +12785,25 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -12866,7 +12866,7 @@
         <v>0</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG62">
         <v>0</v>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -13350,28 +13350,28 @@
         <v>0</v>
       </c>
       <c r="BL64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:BL64">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Documents\Johan\FFI-B_THI\WS_22-23\INTP\INTP-ros\jps_maze\src\jps_maze\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18872179-141D-4462-B4F6-A787B3ECB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6962AC0B-21A2-4B39-B3B7-696DB86473FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board1" sheetId="1" r:id="rId1"/>
@@ -931,13 +931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="27" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BD19" sqref="BD19:BD24"/>
+    <sheetView tabSelected="1" topLeftCell="AF33" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BF61" sqref="BF61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="BL15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4035,13 +4035,13 @@
         <v>1</v>
       </c>
       <c r="BK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4229,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="BK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>0</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>0</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>0</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>0</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>0</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>0</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>0</v>
       </c>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>0</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>0</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>0</v>
       </c>
@@ -11992,10 +11992,10 @@
         <v>1</v>
       </c>
       <c r="BL57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>0</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>0</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>0</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="BF61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG61">
         <v>0</v>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>5</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>5</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63">
         <v>0</v>
@@ -13147,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ63">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>4</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="BG64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH64">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6962AC0B-21A2-4B39-B3B7-696DB86473FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552ADD6-694E-48DE-BDE6-8768A20BF062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF33" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF61" sqref="BF61"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552ADD6-694E-48DE-BDE6-8768A20BF062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF771D0-2C79-4070-88B9-E4018D185B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
